--- a/biology/Histoire de la zoologie et de la botanique/Jules-Aimé_Battandier/Jules-Aimé_Battandier.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jules-Aimé_Battandier/Jules-Aimé_Battandier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jules-Aim%C3%A9_Battandier</t>
+          <t>Jules-Aimé_Battandier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jules-Aimé Battandier est un botaniste français, né le 8 janvier 1848 à Annonay et mort le 18 septembre 1922 à Alger.
 Après son doctorat de sciences naturelles, il devient professeur à la Faculté de médecine et de pharmacie d’Alger  en 1879. Il dirige la pharmacie de l’hôpital Mustapha en 1875. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jules-Aim%C3%A9_Battandier</t>
+          <t>Jules-Aimé_Battandier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Quelques espèces qui lui ont été dédiées :
 Dactylorhiza battandieri Raynaud, 1985
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jules-Aim%C3%A9_Battandier</t>
+          <t>Jules-Aimé_Battandier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Avec Trabut, Flore d'Alger et catalogue des plantes d'Algérie. Monocotyledones (Alger, 1884)
 Avec Maire et Trabut, Atlas de la flore d'Alger (Jourdan, Alger, cinq fascicules, 1886-1920)
